--- a/_Project/_Project2/DB_UI흐름.xlsx
+++ b/_Project/_Project2/DB_UI흐름.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share-422\__Mini 2 - 경매\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6CA0E-B9E5-4D0F-B89F-63BAFF0BBBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EC41A-0040-4895-80F0-4A3BB2818D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="0" windowWidth="10650" windowHeight="15600" firstSheet="6" activeTab="7" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="206">
   <si>
     <t>NULL</t>
   </si>
@@ -216,630 +216,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB명 : Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemAuction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Bid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB명 : Favor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaQDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaADate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minee123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김해 어쩌구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minee@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01011111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무지티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이즈문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 105 가능?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-02-09 13:05:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-02-09 16:05:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/itemsell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/itembuy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/itemup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/updateinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/itemfavor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의한내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의받은내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/todaypick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘본상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/item/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/item/bidlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/footer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로고 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/item/woman, /item/man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 o &gt; /mypage/itemup
-로그인 x &gt; /login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록하기 (버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 이름, 깃허브 링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보(링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목쭈르륵 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 (가입하기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인하기 (버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디/패스워드 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매현황 숫자표기 + (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매현황 숫자표기 + (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정하기 (버튼) + 수정완료알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이전에 입력한 내용, 수정가능 (입력폼) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의했던 리스트 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의받은 리스트 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 등록한 상품 리스트 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 입찰한 상품 리스트 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 (file)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록하기 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 (라디오버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매마감시간 (입력폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰하기 (입력폼) + 확인 (버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰기록 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기 (토글버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변하기 (입력폼) + 확인 (버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 o &gt; /logout
-로그인 x &gt; /login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">판매자 닉네임 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색하기 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search?key=value&amp;물품명=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search?key=value&amp;닉네임=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이미지, 제목, 가격, 판매자닉네임, 마감시간 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search?key=value&amp;물품명=
-/search?key=value&amp;닉네임=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header+입찰기록 많은 순으로 전체상품 이미지, 제목, 가격, 판매자닉네임, 마감시간 (링크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DB명 : QnA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('expired', 'bidding', 'sold')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만료, 입찰, 낙찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UQ(itemNo, userNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('low', 'mid', 'high')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UQ(itemNo, userNo, bidPrice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('top', 'bottom', 'outer', 'dress', 'etc', 'set')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('m', 'w')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemGender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">여성 (w)
-남성 (m) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상의(top) 1
+    <t>cateNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 (w) 10단위 
+남성 (m) 20단위 
+상의(top) 1
 하의(bottom) 2 
 아우터(outer)3 
 원피스(dress) 4 
@@ -847,12 +230,650 @@
 셋업(set) 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DB명 : Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemAuction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Bid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Favor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaQDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaADate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minee123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해 어쩌구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minee@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무지티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 105 가능?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-02-09 13:05:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-02-09 16:05:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/itemsell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/itembuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/itemup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/updateinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/itemfavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/todaypick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘본상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/bidlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/footer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/woman, /item/man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 o &gt; /mypage/itemup
+로그인 x &gt; /login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록하기 (버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 이름, 깃허브 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보(링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목쭈르륵 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 (가입하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인하기 (버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/패스워드 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매현황 숫자표기 + (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매현황 숫자표기 + (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정하기 (버튼) + 수정완료알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이전에 입력한 내용, 수정가능 (입력폼) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의했던 리스트 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의받은 리스트 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 등록한 상품 리스트 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 입찰한 상품 리스트 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 (file)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록하기 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 (라디오버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매마감시간 (입력폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰하기 (입력폼) + 확인 (버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰기록 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 (토글버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변하기 (입력폼) + 확인 (버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 o &gt; /logout
+로그인 x &gt; /login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">판매자 닉네임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색하기 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search?key=value&amp;물품명=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search?key=value&amp;닉네임=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지, 제목, 가격, 판매자닉네임, 마감시간 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search?key=value&amp;물품명=
+/search?key=value&amp;닉네임=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header+입찰기록 많은 순으로 전체상품 이미지, 제목, 가격, 판매자닉네임, 마감시간 (링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB명 : QnA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('w', 'm', 'top', 'bottom', 'outer', 'dress', 'etc', 'set')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('expired', 'bidding', 'sold')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료, 입찰, 낙찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ(itemNo, imageFile)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ(itemNo, userNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,7 +930,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +946,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +1044,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1305,10 +1389,10 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:P2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -1321,11 +1405,11 @@
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,10 +1418,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1407,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1436,13 +1520,13 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1534,7 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1459,7 +1543,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -1476,7 +1560,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1484,13 +1568,13 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1498,13 +1582,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -1521,7 +1605,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1529,7 +1613,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1552,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C05AF-7E12-4759-946A-692EA3490646}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
@@ -1577,11 +1661,11 @@
     <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1590,10 +1674,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1615,49 +1699,46 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1690,167 +1771,150 @@
         <v>4000</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>186</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="99">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1868,20 +1932,20 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1890,10 +1954,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1916,24 +1980,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -1951,35 +2015,38 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1999,19 +2066,19 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2020,10 +2087,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2046,27 +2113,27 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -2090,27 +2157,24 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2118,24 +2182,24 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -2155,10 +2219,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
@@ -2166,11 +2230,11 @@
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2179,10 +2243,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2205,24 +2269,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -2243,41 +2307,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2294,10 +2358,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
@@ -2305,11 +2369,11 @@
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2318,10 +2382,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2344,24 +2408,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -2382,41 +2446,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2432,20 +2496,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEFFC5-3817-4B67-9183-C734F7DF74BC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,10 +2518,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2480,24 +2544,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -2515,24 +2579,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2540,13 +2604,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2560,13 +2624,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D4D1A-50D8-4F2C-AC04-93964DE080C1}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
@@ -2581,11 +2645,11 @@
     <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2594,10 +2658,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2620,39 +2684,39 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>44</v>
@@ -2670,22 +2734,22 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2693,86 +2757,88 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>56</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2780,7 +2846,21 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2794,454 +2874,452 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA71358-18BB-4801-96A6-46744A3F4698}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="C4" t="s">
+      <c r="B8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33">
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33">
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="C16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
+        <v>193</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="C29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="C40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="C41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="C49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="C50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="C52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="C53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="C54" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="C55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="C56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="C59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="s">
         <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" t="s">
         <v>127</v>
       </c>
     </row>
